--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/32.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/32.xlsx
@@ -479,13 +479,13 @@
         <v>-25.1310620190184</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.966636642466277</v>
+        <v>-9.244041427536247</v>
       </c>
       <c r="F2" t="n">
-        <v>5.558008653865921</v>
+        <v>5.717351165672413</v>
       </c>
       <c r="G2" t="n">
-        <v>-19.15008358419005</v>
+        <v>-19.22841525221176</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-25.43608923239426</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.53010446189196</v>
+        <v>-9.692118906889004</v>
       </c>
       <c r="F3" t="n">
-        <v>5.439513794432503</v>
+        <v>5.730204364725532</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.02098935786916</v>
+        <v>-18.91539169855066</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-25.69035883998658</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.95906103538821</v>
+        <v>-9.922293350183359</v>
       </c>
       <c r="F4" t="n">
-        <v>5.200886258265251</v>
+        <v>5.515591630288566</v>
       </c>
       <c r="G4" t="n">
-        <v>-18.25809405933515</v>
+        <v>-18.10667173865306</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-25.81420611668291</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.49936474027845</v>
+        <v>-10.42909269101463</v>
       </c>
       <c r="F5" t="n">
-        <v>5.558693114827288</v>
+        <v>5.725261578783081</v>
       </c>
       <c r="G5" t="n">
-        <v>-17.86492501610471</v>
+        <v>-17.56927210384177</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-25.76425453533039</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.20738093673134</v>
+        <v>-11.02141053996198</v>
       </c>
       <c r="F6" t="n">
-        <v>5.569590711133642</v>
+        <v>5.658570636111494</v>
       </c>
       <c r="G6" t="n">
-        <v>-17.31553264744888</v>
+        <v>-17.25920151032829</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-25.50846995194994</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.9884144507416</v>
+        <v>-11.82244498106479</v>
       </c>
       <c r="F7" t="n">
-        <v>5.442960544273678</v>
+        <v>5.645805439181979</v>
       </c>
       <c r="G7" t="n">
-        <v>-16.31558407295877</v>
+        <v>-16.34851642321431</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-25.02775450846297</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.0411936334356</v>
+        <v>-12.74855977385075</v>
       </c>
       <c r="F8" t="n">
-        <v>5.748078573830973</v>
+        <v>5.886012124567245</v>
       </c>
       <c r="G8" t="n">
-        <v>-15.81710582181499</v>
+        <v>-15.91099430968722</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-24.31164360142721</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.41889385893911</v>
+        <v>-13.24149878021432</v>
       </c>
       <c r="F9" t="n">
-        <v>5.93405150604155</v>
+        <v>6.009919114602337</v>
       </c>
       <c r="G9" t="n">
-        <v>-15.51717502854349</v>
+        <v>-15.72114928403805</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-23.38663094393289</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.98584265125404</v>
+        <v>-13.90828109275165</v>
       </c>
       <c r="F10" t="n">
-        <v>6.367867752363515</v>
+        <v>6.374370131496511</v>
       </c>
       <c r="G10" t="n">
-        <v>-14.62999628644563</v>
+        <v>-14.96221408106624</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-22.27480541946142</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.53873065981971</v>
+        <v>-14.31839054477594</v>
       </c>
       <c r="F11" t="n">
-        <v>5.97138885148418</v>
+        <v>6.178369846201891</v>
       </c>
       <c r="G11" t="n">
-        <v>-13.86846990983436</v>
+        <v>-14.27438459396684</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-21.05093867492407</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.62500442855895</v>
+        <v>-15.45321704071051</v>
       </c>
       <c r="F12" t="n">
-        <v>6.37605194985873</v>
+        <v>6.561047080695925</v>
       </c>
       <c r="G12" t="n">
-        <v>-13.32171271587979</v>
+        <v>-13.77438097268058</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-19.75982083993416</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.42365792331757</v>
+        <v>-16.05275595280029</v>
       </c>
       <c r="F13" t="n">
-        <v>6.645890905864367</v>
+        <v>6.708695088076756</v>
       </c>
       <c r="G13" t="n">
-        <v>-12.95133622266292</v>
+        <v>-13.23509907022553</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-18.50366756630526</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.27272196788096</v>
+        <v>-17.20458641461798</v>
       </c>
       <c r="F14" t="n">
-        <v>6.748633385172584</v>
+        <v>6.778192320689953</v>
       </c>
       <c r="G14" t="n">
-        <v>-12.17103605968269</v>
+        <v>-12.58481226685717</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-17.33748315263862</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.36855628048622</v>
+        <v>-17.37878172928616</v>
       </c>
       <c r="F15" t="n">
-        <v>6.784988040234964</v>
+        <v>6.759662984664344</v>
       </c>
       <c r="G15" t="n">
-        <v>-11.57373142373109</v>
+        <v>-11.95906338895386</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-16.35231008937535</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.40287946225762</v>
+        <v>-18.54280537422994</v>
       </c>
       <c r="F16" t="n">
-        <v>6.717715305746214</v>
+        <v>6.740263405416426</v>
       </c>
       <c r="G16" t="n">
-        <v>-11.75300152752713</v>
+        <v>-11.97323173085418</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-15.58674196754393</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.70917809603549</v>
+        <v>-19.70319159806473</v>
       </c>
       <c r="F17" t="n">
-        <v>6.999454104465922</v>
+        <v>7.118061411057279</v>
       </c>
       <c r="G17" t="n">
-        <v>-11.18156462690838</v>
+        <v>-11.4006459136217</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-15.08429496794761</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.0663542707117</v>
+        <v>-20.30935022545232</v>
       </c>
       <c r="F18" t="n">
-        <v>7.141611757135208</v>
+        <v>7.333857285156038</v>
       </c>
       <c r="G18" t="n">
-        <v>-10.97513608996663</v>
+        <v>-10.85624522097699</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-14.84816849695954</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.77214108003327</v>
+        <v>-20.97255867396993</v>
       </c>
       <c r="F19" t="n">
-        <v>7.105848671903725</v>
+        <v>7.261944883150585</v>
       </c>
       <c r="G19" t="n">
-        <v>-9.899618136334608</v>
+        <v>-10.08607996923188</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-14.86359189653651</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.58644917477976</v>
+        <v>-21.74056298467987</v>
       </c>
       <c r="F20" t="n">
-        <v>7.235666471240918</v>
+        <v>7.312756331518433</v>
       </c>
       <c r="G20" t="n">
-        <v>-9.211627312008602</v>
+        <v>-9.441919091467764</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-15.10328460108405</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.42546631023163</v>
+        <v>-22.51338785616058</v>
       </c>
       <c r="F21" t="n">
-        <v>7.309148244450649</v>
+        <v>7.483842237819254</v>
       </c>
       <c r="G21" t="n">
-        <v>-8.937310025712872</v>
+        <v>-8.998652394872053</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-15.50929703833499</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.9454464135761</v>
+        <v>-22.96131377630046</v>
       </c>
       <c r="F22" t="n">
-        <v>7.14677454838667</v>
+        <v>7.376367199863863</v>
       </c>
       <c r="G22" t="n">
-        <v>-8.199118878877384</v>
+        <v>-8.302301368803622</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-16.03838100966967</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.4528177682108</v>
+        <v>-23.53642721008313</v>
       </c>
       <c r="F23" t="n">
-        <v>7.174661443555553</v>
+        <v>7.36765498962702</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.543019046344264</v>
+        <v>-7.729803553694749</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-16.60788017851597</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.91942947259603</v>
+        <v>-24.01021108754213</v>
       </c>
       <c r="F24" t="n">
-        <v>7.446191995937142</v>
+        <v>7.648132424575064</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.14424231223748</v>
+        <v>-7.356029200705368</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-17.17475835852717</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.23892118234206</v>
+        <v>-24.24542120790941</v>
       </c>
       <c r="F25" t="n">
-        <v>7.191748522555421</v>
+        <v>7.373292014544574</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.725513541106815</v>
+        <v>-7.028304403395458</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-17.66227508327813</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.54801397448216</v>
+        <v>-24.42536599465308</v>
       </c>
       <c r="F26" t="n">
-        <v>7.251184179036506</v>
+        <v>7.507216579649975</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.123755019899455</v>
+        <v>-6.530476390164977</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-18.04237654232731</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.59019143672303</v>
+        <v>-24.37007132698827</v>
       </c>
       <c r="F27" t="n">
-        <v>7.239523897658914</v>
+        <v>7.450724105302773</v>
       </c>
       <c r="G27" t="n">
-        <v>-5.949007247455314</v>
+        <v>-6.303328242121241</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-18.2705995187376</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.51431893915538</v>
+        <v>-24.24580743945189</v>
       </c>
       <c r="F28" t="n">
-        <v>7.078519123517671</v>
+        <v>7.215186421475411</v>
       </c>
       <c r="G28" t="n">
-        <v>-5.79014385832178</v>
+        <v>-6.201759124461083</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-18.34379256360838</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.69666911727757</v>
+        <v>-24.42783983212774</v>
       </c>
       <c r="F29" t="n">
-        <v>6.76659559640163</v>
+        <v>6.880983690066839</v>
       </c>
       <c r="G29" t="n">
-        <v>-5.527745970767588</v>
+        <v>-5.867624839148648</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-18.2580170046955</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.70342083576078</v>
+        <v>-24.44258507683835</v>
       </c>
       <c r="F30" t="n">
-        <v>7.137612549518072</v>
+        <v>7.053697635654343</v>
       </c>
       <c r="G30" t="n">
-        <v>-5.781578318290945</v>
+        <v>-6.182721331721316</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-18.03143754899466</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.39789701863353</v>
+        <v>-24.27763487415551</v>
       </c>
       <c r="F31" t="n">
-        <v>7.328166481162949</v>
+        <v>7.228308515906211</v>
       </c>
       <c r="G31" t="n">
-        <v>-5.749266871907504</v>
+        <v>-6.249558944598911</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-17.69210276128326</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.49611716658985</v>
+        <v>-24.23492451016614</v>
       </c>
       <c r="F32" t="n">
-        <v>6.957447757465389</v>
+        <v>7.070330037015588</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.747570386524685</v>
+        <v>-6.337326395873768</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-17.26557486206186</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.21927226374393</v>
+        <v>-24.06664000480006</v>
       </c>
       <c r="F33" t="n">
-        <v>7.220583885056485</v>
+        <v>7.152426240324824</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.889033800218868</v>
+        <v>-6.478897367719024</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-16.7956021755134</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.83454653537266</v>
+        <v>-23.74579892915877</v>
       </c>
       <c r="F34" t="n">
-        <v>6.999542106589526</v>
+        <v>7.175800582155544</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.769825145782882</v>
+        <v>-6.435248314411207</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-16.30119250131604</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.72454388086707</v>
+        <v>-23.56644571224599</v>
       </c>
       <c r="F35" t="n">
-        <v>7.668783589580913</v>
+        <v>7.628107052448181</v>
       </c>
       <c r="G35" t="n">
-        <v>-6.252912803309615</v>
+        <v>-6.900818660333784</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-15.83158825978432</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.27771798727225</v>
+        <v>-23.15720161443714</v>
       </c>
       <c r="F36" t="n">
-        <v>7.54538505625998</v>
+        <v>7.692886393434804</v>
       </c>
       <c r="G36" t="n">
-        <v>-6.258887169700984</v>
+        <v>-7.099776794782888</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-15.39777578671472</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.72526998932459</v>
+        <v>-22.75963246502648</v>
       </c>
       <c r="F37" t="n">
-        <v>7.669218711192069</v>
+        <v>7.696455368447651</v>
       </c>
       <c r="G37" t="n">
-        <v>-6.268049168569583</v>
+        <v>-7.000984633023138</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-15.03846416599706</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.20095333688916</v>
+        <v>-22.26577921437881</v>
       </c>
       <c r="F38" t="n">
-        <v>7.255481616072524</v>
+        <v>7.454459306549095</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.313062254793269</v>
+        <v>-6.977898742597565</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-14.7535623278564</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.70004036032566</v>
+        <v>-21.81728616944236</v>
       </c>
       <c r="F39" t="n">
-        <v>7.400626451937495</v>
+        <v>7.499477281779648</v>
       </c>
       <c r="G39" t="n">
-        <v>-6.466591737434999</v>
+        <v>-7.05793667401583</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-14.56047643316419</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.37536141429384</v>
+        <v>-21.51388418129536</v>
       </c>
       <c r="F40" t="n">
-        <v>7.336067116259883</v>
+        <v>7.437919796318322</v>
       </c>
       <c r="G40" t="n">
-        <v>-6.626545375099855</v>
+        <v>-7.182161449497271</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-14.45084494576568</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.80257025877295</v>
+        <v>-20.99995177944525</v>
       </c>
       <c r="F41" t="n">
-        <v>7.631040456568329</v>
+        <v>7.604150918800298</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.089089425771812</v>
+        <v>-7.642128993550363</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-14.41717379533892</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.49026538912129</v>
+        <v>-20.66784643198259</v>
       </c>
       <c r="F42" t="n">
-        <v>7.494686055050072</v>
+        <v>7.610120396184801</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.09942478628847</v>
+        <v>-7.633944796055149</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-14.44628306270838</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.02949604794202</v>
+        <v>-20.25840677389906</v>
       </c>
       <c r="F43" t="n">
-        <v>7.171336918886051</v>
+        <v>7.463748419596234</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.357222118380895</v>
+        <v>-7.835454992088781</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-14.51225154777029</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.23880185636273</v>
+        <v>-19.3643736441738</v>
       </c>
       <c r="F44" t="n">
-        <v>7.451301008113068</v>
+        <v>7.664769714943175</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.519630037492943</v>
+        <v>-7.91865611094994</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-14.6024711765856</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.50042003825944</v>
+        <v>-18.59209145245531</v>
       </c>
       <c r="F45" t="n">
-        <v>7.543375674437677</v>
+        <v>7.796508893979066</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.641561868753802</v>
+        <v>-8.071525577664637</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-14.68027164830902</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.06500997569886</v>
+        <v>-18.17259021823967</v>
       </c>
       <c r="F46" t="n">
-        <v>7.426934197888365</v>
+        <v>7.61319558150409</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.735132571179687</v>
+        <v>-8.096498624740839</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-14.74111281441435</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.95742249058553</v>
+        <v>-18.05885236248776</v>
       </c>
       <c r="F47" t="n">
-        <v>7.682125689320724</v>
+        <v>7.813366189656189</v>
       </c>
       <c r="G47" t="n">
-        <v>-8.247187594392891</v>
+        <v>-8.548506865614593</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-14.7542735910306</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.05637852501311</v>
+        <v>-17.1734776639238</v>
       </c>
       <c r="F48" t="n">
-        <v>7.742167582653306</v>
+        <v>7.812779508832159</v>
       </c>
       <c r="G48" t="n">
-        <v>-8.205782595236988</v>
+        <v>-8.503542669459575</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-14.72752450450327</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.62064578799931</v>
+        <v>-16.74366062521897</v>
       </c>
       <c r="F49" t="n">
-        <v>7.727270778729816</v>
+        <v>7.7846970533886</v>
       </c>
       <c r="G49" t="n">
-        <v>-8.342190775830781</v>
+        <v>-8.768844627092715</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-14.64623860568867</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.33249261227021</v>
+        <v>-16.26605843339692</v>
       </c>
       <c r="F50" t="n">
-        <v>7.58430643992749</v>
+        <v>7.651437393217098</v>
       </c>
       <c r="G50" t="n">
-        <v>-9.21308912506181</v>
+        <v>-9.470314443350805</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-14.52708437121777</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.72234944428609</v>
+        <v>-15.69204013715243</v>
       </c>
       <c r="F51" t="n">
-        <v>7.642055389039489</v>
+        <v>7.693502408300035</v>
       </c>
       <c r="G51" t="n">
-        <v>-9.209725488337371</v>
+        <v>-9.56578696944792</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-14.37383077083325</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.00491213160065</v>
+        <v>-15.05594612071873</v>
       </c>
       <c r="F52" t="n">
-        <v>7.67928028732418</v>
+        <v>7.685230208681215</v>
       </c>
       <c r="G52" t="n">
-        <v>-9.672939332950095</v>
+        <v>-9.933171390462245</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-14.20562854305716</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.8908418233818</v>
+        <v>-14.97412859080091</v>
       </c>
       <c r="F53" t="n">
-        <v>7.789928290736198</v>
+        <v>7.767844646718344</v>
       </c>
       <c r="G53" t="n">
-        <v>-10.04282692548028</v>
+        <v>-10.3997342047788</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-14.04011176339764</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.226684907532</v>
+        <v>-14.52608533449622</v>
       </c>
       <c r="F54" t="n">
-        <v>7.913111707754988</v>
+        <v>7.816822717511098</v>
       </c>
       <c r="G54" t="n">
-        <v>-9.977563572813832</v>
+        <v>-10.55148897792784</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-13.89082058143809</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.82938954250589</v>
+        <v>-14.04931427384154</v>
       </c>
       <c r="F55" t="n">
-        <v>7.840617513932373</v>
+        <v>7.777666661513976</v>
       </c>
       <c r="G55" t="n">
-        <v>-10.81008810714644</v>
+        <v>-11.10583879954673</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-13.78071227305881</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.58110621777648</v>
+        <v>-13.83629046663633</v>
       </c>
       <c r="F56" t="n">
-        <v>7.654830363982738</v>
+        <v>7.669184488144</v>
       </c>
       <c r="G56" t="n">
-        <v>-11.09878396263777</v>
+        <v>-11.49288680617979</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-13.71015265538235</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.29725536809027</v>
+        <v>-13.58749379618589</v>
       </c>
       <c r="F57" t="n">
-        <v>7.810999910332602</v>
+        <v>7.725320064989917</v>
       </c>
       <c r="G57" t="n">
-        <v>-11.60242500503302</v>
+        <v>-12.011737548938</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-13.70220932471166</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.71194835499008</v>
+        <v>-13.18420939774781</v>
       </c>
       <c r="F58" t="n">
-        <v>7.584154880714616</v>
+        <v>7.499325722566774</v>
       </c>
       <c r="G58" t="n">
-        <v>-12.07002917781223</v>
+        <v>-12.36548164079363</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-13.74585477857002</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.47388305461252</v>
+        <v>-13.05806813157454</v>
       </c>
       <c r="F59" t="n">
-        <v>7.737542582157205</v>
+        <v>7.698674977565231</v>
       </c>
       <c r="G59" t="n">
-        <v>-11.9479604543591</v>
+        <v>-12.26938332181755</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-13.85853332514216</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.78789672310195</v>
+        <v>-12.53964762142061</v>
       </c>
       <c r="F60" t="n">
-        <v>7.579754774534392</v>
+        <v>7.625105202231895</v>
       </c>
       <c r="G60" t="n">
-        <v>-12.10670161832096</v>
+        <v>-12.43552155316906</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-14.01919174229948</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.49342206149393</v>
+        <v>-12.29575951386456</v>
       </c>
       <c r="F61" t="n">
-        <v>7.375174282188336</v>
+        <v>7.369503034222714</v>
       </c>
       <c r="G61" t="n">
-        <v>-12.15038489467684</v>
+        <v>-12.56019611728225</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-14.23026592094192</v>
       </c>
       <c r="E62" t="n">
-        <v>-12.3228690569416</v>
+        <v>-12.20744449382061</v>
       </c>
       <c r="F62" t="n">
-        <v>7.330889657987821</v>
+        <v>7.506825459100622</v>
       </c>
       <c r="G62" t="n">
-        <v>-12.72106399923122</v>
+        <v>-12.98206851982835</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-14.46777455596632</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.12508917314742</v>
+        <v>-12.12353446896375</v>
       </c>
       <c r="F63" t="n">
-        <v>7.440911868520875</v>
+        <v>7.596978745726533</v>
       </c>
       <c r="G63" t="n">
-        <v>-12.64609107892708</v>
+        <v>-12.89499041852172</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-14.72014040851858</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.45335176121269</v>
+        <v>-12.405473716965</v>
       </c>
       <c r="F64" t="n">
-        <v>7.128386993560203</v>
+        <v>7.422196750234324</v>
       </c>
       <c r="G64" t="n">
-        <v>-13.05889926274191</v>
+        <v>-13.25805784647256</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-14.96853172222739</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.20711693036052</v>
+        <v>-12.32988967080249</v>
       </c>
       <c r="F65" t="n">
-        <v>7.345747349856375</v>
+        <v>7.647672857929575</v>
       </c>
       <c r="G65" t="n">
-        <v>-13.28045927593677</v>
+        <v>-13.38457067716772</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-15.19469694260851</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.15050711984852</v>
+        <v>-12.24019595082207</v>
       </c>
       <c r="F66" t="n">
-        <v>7.065054798606186</v>
+        <v>7.414398784281595</v>
       </c>
       <c r="G66" t="n">
-        <v>-13.61850476674273</v>
+        <v>-13.56732664285987</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-15.39238487408547</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.1284919219268</v>
+        <v>-12.45538558806933</v>
       </c>
       <c r="F67" t="n">
-        <v>6.773885105640201</v>
+        <v>7.241254606089802</v>
       </c>
       <c r="G67" t="n">
-        <v>-13.57755933423232</v>
+        <v>-13.63312289727481</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-15.54280433306614</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.17718643032127</v>
+        <v>-12.39193605695051</v>
       </c>
       <c r="F68" t="n">
-        <v>6.913901373301777</v>
+        <v>7.385494975684393</v>
       </c>
       <c r="G68" t="n">
-        <v>-13.75456093884211</v>
+        <v>-13.67692839880237</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-15.65474465419143</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.68379021087786</v>
+        <v>-12.80128771291043</v>
       </c>
       <c r="F69" t="n">
-        <v>7.125233584131043</v>
+        <v>7.485470277105937</v>
       </c>
       <c r="G69" t="n">
-        <v>-13.43714216800766</v>
+        <v>-13.38697606854624</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-15.71290489997358</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.40842178810575</v>
+        <v>-12.67172903093718</v>
       </c>
       <c r="F70" t="n">
-        <v>6.973385919851531</v>
+        <v>7.565762436881282</v>
       </c>
       <c r="G70" t="n">
-        <v>-13.44468101659644</v>
+        <v>-13.39693497553415</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-15.73671651825892</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.78556466682643</v>
+        <v>-12.96753839141987</v>
       </c>
       <c r="F71" t="n">
-        <v>6.79501050431214</v>
+        <v>7.424010571781949</v>
       </c>
       <c r="G71" t="n">
-        <v>-13.56458391000753</v>
+        <v>-13.36270703845888</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-15.71682566538128</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.91998302162539</v>
+        <v>-13.02601091354818</v>
       </c>
       <c r="F72" t="n">
-        <v>6.843929907022491</v>
+        <v>7.482228865553172</v>
       </c>
       <c r="G72" t="n">
-        <v>-13.8017300770941</v>
+        <v>-13.64095019726874</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-15.67407876462586</v>
       </c>
       <c r="E73" t="n">
-        <v>-13.14802096891891</v>
+        <v>-13.3625261452048</v>
       </c>
       <c r="F73" t="n">
-        <v>6.817842166380633</v>
+        <v>7.49804969177451</v>
       </c>
       <c r="G73" t="n">
-        <v>-13.94055342708015</v>
+        <v>-13.58588042391981</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-15.60698801241888</v>
       </c>
       <c r="E74" t="n">
-        <v>-13.48413530201244</v>
+        <v>-13.59441174090258</v>
       </c>
       <c r="F74" t="n">
-        <v>6.815099433528293</v>
+        <v>7.440007402250495</v>
       </c>
       <c r="G74" t="n">
-        <v>-13.81375214497985</v>
+        <v>-13.51983971916152</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-15.52829711728541</v>
       </c>
       <c r="E75" t="n">
-        <v>-14.00285404158525</v>
+        <v>-14.08836766069446</v>
       </c>
       <c r="F75" t="n">
-        <v>6.744907961939996</v>
+        <v>7.431950318933819</v>
       </c>
       <c r="G75" t="n">
-        <v>-13.91029536358082</v>
+        <v>-13.65184290456823</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-15.4420444175351</v>
       </c>
       <c r="E76" t="n">
-        <v>-14.0682347304165</v>
+        <v>-14.31643005302231</v>
       </c>
       <c r="F76" t="n">
-        <v>6.828661538577116</v>
+        <v>7.583949542426205</v>
       </c>
       <c r="G76" t="n">
-        <v>-14.0511818744647</v>
+        <v>-13.71830406391707</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-15.34914772250185</v>
       </c>
       <c r="E77" t="n">
-        <v>-14.47954687813006</v>
+        <v>-14.75060808585243</v>
       </c>
       <c r="F77" t="n">
-        <v>6.929394636063031</v>
+        <v>7.567962489971393</v>
       </c>
       <c r="G77" t="n">
-        <v>-13.61575225587666</v>
+        <v>-13.40917215972203</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-15.2572207728217</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.06312807180623</v>
+        <v>-15.20463548656222</v>
       </c>
       <c r="F78" t="n">
-        <v>6.769260105144099</v>
+        <v>7.553877261187811</v>
       </c>
       <c r="G78" t="n">
-        <v>-13.44661217430887</v>
+        <v>-13.30571099640438</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-15.15586901141989</v>
       </c>
       <c r="E79" t="n">
-        <v>-15.25666918664679</v>
+        <v>-15.31516615380943</v>
       </c>
       <c r="F79" t="n">
-        <v>6.980856322344177</v>
+        <v>7.738520383530588</v>
       </c>
       <c r="G79" t="n">
-        <v>-13.48924920319524</v>
+        <v>-13.25114967976961</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-15.0576905499181</v>
       </c>
       <c r="E80" t="n">
-        <v>-15.83017413717025</v>
+        <v>-15.90776756515506</v>
       </c>
       <c r="F80" t="n">
-        <v>6.944897676838019</v>
+        <v>7.754859444479818</v>
       </c>
       <c r="G80" t="n">
-        <v>-13.32339942324888</v>
+        <v>-13.11296678968313</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-14.94554240408198</v>
       </c>
       <c r="E81" t="n">
-        <v>-16.71954315434448</v>
+        <v>-16.72616775864915</v>
       </c>
       <c r="F81" t="n">
-        <v>6.962375876387239</v>
+        <v>7.720856401720424</v>
       </c>
       <c r="G81" t="n">
-        <v>-12.86331454303098</v>
+        <v>-12.68398577115254</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-14.83343946284205</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.5253786001906</v>
+        <v>-17.53224276583175</v>
       </c>
       <c r="F82" t="n">
-        <v>6.967103546027546</v>
+        <v>7.708531215408931</v>
       </c>
       <c r="G82" t="n">
-        <v>-12.79046345170708</v>
+        <v>-12.64905381708843</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-14.70342595645299</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.34982649517907</v>
+        <v>-18.28920281002933</v>
       </c>
       <c r="F83" t="n">
-        <v>7.177516623565832</v>
+        <v>7.887395531635015</v>
       </c>
       <c r="G83" t="n">
-        <v>-12.6010633256828</v>
+        <v>-12.66039142401281</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-14.56540624965058</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.58658878428881</v>
+        <v>-19.45470293504692</v>
       </c>
       <c r="F84" t="n">
-        <v>6.904910489673521</v>
+        <v>7.571922585533594</v>
       </c>
       <c r="G84" t="n">
-        <v>-12.34877101532252</v>
+        <v>-12.38058378300553</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-14.40807325954269</v>
       </c>
       <c r="E85" t="n">
-        <v>-20.65835198064704</v>
+        <v>-20.46049387274299</v>
       </c>
       <c r="F85" t="n">
-        <v>7.368632791000404</v>
+        <v>8.079709505751982</v>
       </c>
       <c r="G85" t="n">
-        <v>-12.36470917770866</v>
+        <v>-12.52924870381468</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-14.23439894150326</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.89244976101431</v>
+        <v>-21.54108661550287</v>
       </c>
       <c r="F86" t="n">
-        <v>7.460101220473516</v>
+        <v>8.002751648659872</v>
       </c>
       <c r="G86" t="n">
-        <v>-11.59717910066482</v>
+        <v>-12.04522724597637</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-14.04164176829021</v>
       </c>
       <c r="E87" t="n">
-        <v>-22.87005557412263</v>
+        <v>-22.51131002824214</v>
       </c>
       <c r="F87" t="n">
-        <v>7.56704824568728</v>
+        <v>8.117076185235812</v>
       </c>
       <c r="G87" t="n">
-        <v>-11.47117472668382</v>
+        <v>-11.88208108682742</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-13.8266483848244</v>
       </c>
       <c r="E88" t="n">
-        <v>-24.02364607841241</v>
+        <v>-23.72851628988422</v>
       </c>
       <c r="F88" t="n">
-        <v>7.76647083578874</v>
+        <v>8.156838478084431</v>
       </c>
       <c r="G88" t="n">
-        <v>-11.46641772300231</v>
+        <v>-11.92588169934811</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-13.59592670617818</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.38877413181987</v>
+        <v>-25.05767591977179</v>
       </c>
       <c r="F89" t="n">
-        <v>7.508355718249966</v>
+        <v>8.048483418892996</v>
       </c>
       <c r="G89" t="n">
-        <v>-10.76025934915885</v>
+        <v>-11.35285098249074</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-13.34176185784244</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.96105673968881</v>
+        <v>-26.74425861918234</v>
       </c>
       <c r="F90" t="n">
-        <v>7.645497249873797</v>
+        <v>8.146982240240732</v>
       </c>
       <c r="G90" t="n">
-        <v>-11.01644330898519</v>
+        <v>-11.50797428137109</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-13.07978960500902</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.94013160842285</v>
+        <v>-28.63300175253982</v>
       </c>
       <c r="F91" t="n">
-        <v>7.792470574306995</v>
+        <v>8.319979748226517</v>
       </c>
       <c r="G91" t="n">
-        <v>-10.44982208013035</v>
+        <v>-11.11578303951404</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-12.80100979977579</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.6384405908037</v>
+        <v>-30.49443978254559</v>
       </c>
       <c r="F92" t="n">
-        <v>7.937708301302437</v>
+        <v>8.348927557885521</v>
       </c>
       <c r="G92" t="n">
-        <v>-10.6871198064298</v>
+        <v>-11.10752550691581</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-12.5295456576689</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.33359127474852</v>
+        <v>-32.13767410257064</v>
       </c>
       <c r="F93" t="n">
-        <v>8.014284815858925</v>
+        <v>8.275005774057766</v>
       </c>
       <c r="G93" t="n">
-        <v>-10.62893084669978</v>
+        <v>-11.18480603846114</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-12.26217888597604</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.37037353603619</v>
+        <v>-34.22224151697553</v>
       </c>
       <c r="F94" t="n">
-        <v>7.718490122396838</v>
+        <v>8.155909566779718</v>
       </c>
       <c r="G94" t="n">
-        <v>-9.910329950380017</v>
+        <v>-10.50070197459433</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-12.02361306062507</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.80847481500144</v>
+        <v>-36.54559291576742</v>
       </c>
       <c r="F95" t="n">
-        <v>7.652679200961296</v>
+        <v>7.998591103816128</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.396050429042367</v>
+        <v>-10.02221487252937</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-11.8216014974816</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.63141191593024</v>
+        <v>-38.4271907655889</v>
       </c>
       <c r="F96" t="n">
-        <v>7.34702338064864</v>
+        <v>7.700141679625306</v>
       </c>
       <c r="G96" t="n">
-        <v>-8.799156469667588</v>
+        <v>-9.397258013738496</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-11.66941030392078</v>
       </c>
       <c r="E97" t="n">
-        <v>-41.10446226048364</v>
+        <v>-41.04691376065318</v>
       </c>
       <c r="F97" t="n">
-        <v>7.121918837475275</v>
+        <v>7.408170189533145</v>
       </c>
       <c r="G97" t="n">
-        <v>-8.291692223902418</v>
+        <v>-8.868805261493659</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-11.58431977859451</v>
       </c>
       <c r="E98" t="n">
-        <v>-43.05567223457969</v>
+        <v>-43.09019595657041</v>
       </c>
       <c r="F98" t="n">
-        <v>6.915382742382453</v>
+        <v>7.046623242717917</v>
       </c>
       <c r="G98" t="n">
-        <v>-7.871144742217261</v>
+        <v>-8.44369633640167</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-11.55844085461827</v>
       </c>
       <c r="E99" t="n">
-        <v>-45.77214623103678</v>
+        <v>-45.80363143525971</v>
       </c>
       <c r="F99" t="n">
-        <v>6.704896329741163</v>
+        <v>6.713989882513625</v>
       </c>
       <c r="G99" t="n">
-        <v>-7.680537031496848</v>
+        <v>-8.189629316548702</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-11.62217807715919</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.20961438361276</v>
+        <v>-48.20300444632869</v>
       </c>
       <c r="F100" t="n">
-        <v>6.271368534824347</v>
+        <v>6.167178909483523</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.389895351272488</v>
+        <v>-7.849163767343611</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-11.73263995057851</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.20437440862758</v>
+        <v>-50.32106889128225</v>
       </c>
       <c r="F101" t="n">
-        <v>6.259136239643326</v>
+        <v>5.956956503213047</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.235084948831626</v>
+        <v>-7.531710773461089</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-11.95446072819157</v>
       </c>
       <c r="E102" t="n">
-        <v>-52.06189023287436</v>
+        <v>-52.26702562749981</v>
       </c>
       <c r="F102" t="n">
-        <v>5.810931646112032</v>
+        <v>5.506571412619108</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.228910133158712</v>
+        <v>-7.456478735793002</v>
       </c>
     </row>
   </sheetData>
